--- a/output/full_report_Ozon, пункты выдачи.xlsx
+++ b/output/full_report_Ozon, пункты выдачи.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H172"/>
+  <dimension ref="A1:H298"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6965,6 +6965,4790 @@
         </is>
       </c>
     </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>ул. Ленина, 75, г. Грязовец</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>58.8763027</v>
+      </c>
+      <c r="E173" t="n">
+        <v>40.2533214</v>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Западная ул., 4, село Сямжа</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>60.0206806</v>
+      </c>
+      <c r="E174" t="n">
+        <v>41.05896389999999</v>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>ул. Ленина, 5А, село Молочное, этаж 1</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>59.28942499999999</v>
+      </c>
+      <c r="E175" t="n">
+        <v>39.67566</v>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>ул. Преображенского, 11, Кириллов</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>59.8592033</v>
+      </c>
+      <c r="E176" t="n">
+        <v>38.3803806</v>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Первомайская ул., 3, п. г. т. Чагода</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>59.1674405</v>
+      </c>
+      <c r="E177" t="n">
+        <v>35.3315197</v>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Ленинградская ул., 140, Вологда</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>59.2077463</v>
+      </c>
+      <c r="E178" t="n">
+        <v>39.8403718</v>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Советский просп., 81, Вытегра</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>61.01349579999999</v>
+      </c>
+      <c r="E179" t="n">
+        <v>36.4583278</v>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Белоусовская ул., 38, Тотьма</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>59.97436200000001</v>
+      </c>
+      <c r="E180" t="n">
+        <v>42.7592664</v>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>ул. Розы Люксембург, 38, Кадников</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>59.5011765</v>
+      </c>
+      <c r="E181" t="n">
+        <v>40.3385989</v>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>ул. Михаила Поповича, 37А, Вологда</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>59.24775099999999</v>
+      </c>
+      <c r="E182" t="n">
+        <v>39.83831989999999</v>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>ул. Шапина, 10, село Шуйское</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>59.37418450000001</v>
+      </c>
+      <c r="E183" t="n">
+        <v>41.0330996</v>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>ул. Ленина, 34, Харовск</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>59.95110889999999</v>
+      </c>
+      <c r="E184" t="n">
+        <v>40.2043553</v>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Октябрьская ул., 1А, село Липин Бор</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>60.2569916</v>
+      </c>
+      <c r="E185" t="n">
+        <v>37.9710011</v>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>ул. Труда, 10, микрорайон Шексна Северная, рабочий посёлок Шексна</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>59.2304681</v>
+      </c>
+      <c r="E186" t="n">
+        <v>38.51425529999999</v>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Советский просп., 74, Белозерск</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>60.0325073</v>
+      </c>
+      <c r="E187" t="n">
+        <v>37.7942443</v>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>ул. Гагарина, 94, Кириллов</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>59.85515149999999</v>
+      </c>
+      <c r="E188" t="n">
+        <v>38.3750467</v>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>ул. Гагарина, 19, микрорайон Шексна Южная, рабочий посёлок Шексна</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>59.20699319999999</v>
+      </c>
+      <c r="E189" t="n">
+        <v>38.5030125</v>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Колхозная ул., 58, рабочий посёлок Вохтога</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>58.8120545</v>
+      </c>
+      <c r="E190" t="n">
+        <v>41.0347535</v>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>ул. Краснодонцев, 116, Череповец</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>59.13061310000001</v>
+      </c>
+      <c r="E191" t="n">
+        <v>38.0085545</v>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Вологодская ул., 6, посёлок Сосновка</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>59.19474090000001</v>
+      </c>
+      <c r="E192" t="n">
+        <v>39.5774737</v>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>ул. Торфяников, 9, рабочий посёлок Хохлово</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>59.14709749999999</v>
+      </c>
+      <c r="E193" t="n">
+        <v>37.3982799</v>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Шекснинский просп., 6, Череповец</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>59.09190950000001</v>
+      </c>
+      <c r="E194" t="n">
+        <v>37.9257134</v>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>ул. Менжинского, 2А, посёлок Суда</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>59.15351069999999</v>
+      </c>
+      <c r="E195" t="n">
+        <v>37.5486413</v>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Шлюзовая ул., 2А, микрорайон Шексна Северная, рабочий посёлок Шексна</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>59.2351067</v>
+      </c>
+      <c r="E196" t="n">
+        <v>38.5111779</v>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Московский просп., 49А, корп. 3, Череповец</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>59.12305379999999</v>
+      </c>
+      <c r="E197" t="n">
+        <v>37.90889</v>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Новая ул., 5А, д. Ирдоматка</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>59.1186258</v>
+      </c>
+      <c r="E198" t="n">
+        <v>38.083179</v>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>пер. Терешковой, 12, Устюжна</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>58.84047279999999</v>
+      </c>
+      <c r="E199" t="n">
+        <v>36.4438134</v>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Комсомольская ул., 14, Череповец</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>59.13715799999999</v>
+      </c>
+      <c r="E200" t="n">
+        <v>37.9271571</v>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>ул. Бабушкина, 50А, село имени Бабушкина</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>59.7559279</v>
+      </c>
+      <c r="E201" t="n">
+        <v>43.1266516</v>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Архангельская ул., 13, Череповец</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>59.1200461</v>
+      </c>
+      <c r="E202" t="n">
+        <v>37.9772442</v>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>ул. Сергея Преминина, 8, Вологда</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>59.2007025</v>
+      </c>
+      <c r="E203" t="n">
+        <v>39.876333</v>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Набережная ул., 1, село Устье</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>59.6263459</v>
+      </c>
+      <c r="E204" t="n">
+        <v>39.7336947</v>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Россия, Вологодская область, Шекснинский район, городок Вологда-20</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>59.21806649999999</v>
+      </c>
+      <c r="E205" t="n">
+        <v>39.8978053</v>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>ул. Карла Маркса, 63, г. Грязовец</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>58.8812951</v>
+      </c>
+      <c r="E206" t="n">
+        <v>40.24391689999999</v>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>ул. Красного Октября, 7, Бабаево</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>59.39060159999999</v>
+      </c>
+      <c r="E207" t="n">
+        <v>35.9481295</v>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>ул. Гагарина, 11, Вологда</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>59.216591</v>
+      </c>
+      <c r="E208" t="n">
+        <v>39.849004</v>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>ул. Краснодонцев, 9, Череповец</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>59.131564</v>
+      </c>
+      <c r="E209" t="n">
+        <v>37.9819239</v>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>ул. Ленина, 5А, село Молочное</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>59.2893023</v>
+      </c>
+      <c r="E210" t="n">
+        <v>39.6762768</v>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>ул. Гагарина, 83, Вологда</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>59.2050309</v>
+      </c>
+      <c r="E211" t="n">
+        <v>39.8253101</v>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>ул. Курманова, 4, рабочий посёлок Кадуй</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>59.19802679999999</v>
+      </c>
+      <c r="E212" t="n">
+        <v>37.1502697</v>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Северная ул., 36, Вологда, лестница, этаж 1</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>59.21785000000001</v>
+      </c>
+      <c r="E213" t="n">
+        <v>39.942314</v>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>ул. Командарма Белова, 17, Череповец</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>59.11690300000001</v>
+      </c>
+      <c r="E214" t="n">
+        <v>37.988538</v>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>10, корп. 2, 1-й микрорайон ГПЗ-23, Вологда</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>59.24145679999999</v>
+      </c>
+      <c r="E215" t="n">
+        <v>39.8390828</v>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Новгородская ул., 4, Вологда</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>59.20312999999999</v>
+      </c>
+      <c r="E216" t="n">
+        <v>39.842615</v>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>1, микрорайон Зелёный Город, Вологда</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>59.21335999999999</v>
+      </c>
+      <c r="E217" t="n">
+        <v>39.810909</v>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Коммунистический пер., 11А, Устюжна</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>58.84154839999999</v>
+      </c>
+      <c r="E218" t="n">
+        <v>36.4263605</v>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Олимпийская ул., 28, Череповец</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>59.12106589999999</v>
+      </c>
+      <c r="E219" t="n">
+        <v>38.010852</v>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>ул. Текстильщиков, 16, Вологда</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>59.1902054</v>
+      </c>
+      <c r="E220" t="n">
+        <v>39.9211739</v>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Ярославская ул., 33, Вологда</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>59.1959416</v>
+      </c>
+      <c r="E221" t="n">
+        <v>39.8765315</v>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>ул. Маршала Конева, 5Б, Вологда</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>59.196535</v>
+      </c>
+      <c r="E222" t="n">
+        <v>39.910118</v>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>ул. Энтузиастов, 4, рабочий посёлок Кадуй</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>59.21154999999999</v>
+      </c>
+      <c r="E223" t="n">
+        <v>37.110636</v>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Фабричная ул., 4, д. Нифантово</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>59.21323459999999</v>
+      </c>
+      <c r="E224" t="n">
+        <v>38.4649202</v>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>просп. Победы, 125, Череповец</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>59.1248875</v>
+      </c>
+      <c r="E225" t="n">
+        <v>37.974681</v>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>ул. Батюшкова, 1, Череповец</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>59.102704</v>
+      </c>
+      <c r="E226" t="n">
+        <v>37.9129879</v>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Воркутинская ул., 16, Вологда</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>59.18629900000001</v>
+      </c>
+      <c r="E227" t="n">
+        <v>39.911475</v>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Пошехонское ш., 18, корп. Е, Вологда</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>59.1993309</v>
+      </c>
+      <c r="E228" t="n">
+        <v>39.8595234</v>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>ул. Горького, 97, Вологда</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>59.224792</v>
+      </c>
+      <c r="E229" t="n">
+        <v>39.912328</v>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>ул. Батюшкова, 11, Череповец</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>59.09987789999999</v>
+      </c>
+      <c r="E230" t="n">
+        <v>37.9162074</v>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>просп. Победы, 88, Череповец</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>59.12734940000001</v>
+      </c>
+      <c r="E231" t="n">
+        <v>37.93942560000001</v>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Советская ул., 111, Сокол</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr"/>
+      <c r="E232" t="inlineStr"/>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Октябрьский просп., 91, Череповец</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>59.0809191</v>
+      </c>
+      <c r="E233" t="n">
+        <v>37.9220841</v>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>ул. Наседкина, 22, Череповец</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>59.09221400000001</v>
+      </c>
+      <c r="E234" t="n">
+        <v>37.901707</v>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Новгородская ул., 35, Вологда</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>59.1933091</v>
+      </c>
+      <c r="E235" t="n">
+        <v>39.8698486</v>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>ул. Гоголя, 38, Череповец</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>59.12289579999999</v>
+      </c>
+      <c r="E236" t="n">
+        <v>37.957703</v>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Городецкая ул., 26, Череповец</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>59.08930900000001</v>
+      </c>
+      <c r="E237" t="n">
+        <v>37.9047481</v>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>ул. Ленина, 121, Череповец</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>59.12667099999999</v>
+      </c>
+      <c r="E238" t="n">
+        <v>37.909443</v>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Ярославская ул., 7, Вологда</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>59.2066101</v>
+      </c>
+      <c r="E239" t="n">
+        <v>39.8490246</v>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Ярославская ул., 18, корп. 1, Вологда</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>59.1973316</v>
+      </c>
+      <c r="E240" t="n">
+        <v>39.8630417</v>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Ленинградский тракт, 5, Вытегра</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>61.0053685</v>
+      </c>
+      <c r="E241" t="n">
+        <v>36.4349586</v>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>ул. Ветеранов, 2А, Череповец, этаж 1</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>59.14443299999999</v>
+      </c>
+      <c r="E242" t="n">
+        <v>37.9550281</v>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>ул. Металлургов, 20, Череповец</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>59.131825</v>
+      </c>
+      <c r="E243" t="n">
+        <v>37.8934208</v>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>ул. Разина, 41, Вологда</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>59.2135681</v>
+      </c>
+      <c r="E244" t="n">
+        <v>39.9243441</v>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>просп. Победы, 99В, Череповец</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>59.127039</v>
+      </c>
+      <c r="E245" t="n">
+        <v>37.964329</v>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>ул. Ленина, 61, Череповец</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>59.124827</v>
+      </c>
+      <c r="E246" t="n">
+        <v>37.923876</v>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>просп. Победы, 148А, Череповец</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>59.1218271</v>
+      </c>
+      <c r="E247" t="n">
+        <v>37.9881937</v>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>ул. Краснодонцев, 82А, Череповец</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>59.1296919</v>
+      </c>
+      <c r="E248" t="n">
+        <v>37.996824</v>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Колхозная ул., 14, корп. А, микрорайон Прилуки, Вологда</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>59.2641832</v>
+      </c>
+      <c r="E249" t="n">
+        <v>39.8873857</v>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>ул. Сталеваров, 68, Череповец</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>59.13289700000001</v>
+      </c>
+      <c r="E250" t="n">
+        <v>37.9110489</v>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>ул. Чернышевского, 118А, Вологда</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>59.24429179999999</v>
+      </c>
+      <c r="E251" t="n">
+        <v>39.9086144</v>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Советский просп., 164, Вологда</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>59.197529</v>
+      </c>
+      <c r="E252" t="n">
+        <v>39.924991</v>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Благовещенская ул., 100А, Вологда</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>59.2255</v>
+      </c>
+      <c r="E253" t="n">
+        <v>39.8640681</v>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Первомайская ул., 22, Череповец</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>59.11855289999999</v>
+      </c>
+      <c r="E254" t="n">
+        <v>37.9681083</v>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>ул. Лётчика Каберова, 1А, Вологда</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>59.21806649999999</v>
+      </c>
+      <c r="E255" t="n">
+        <v>39.8978053</v>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>ул. Верещагина, 47, Череповец</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>59.129648</v>
+      </c>
+      <c r="E256" t="n">
+        <v>37.916151</v>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>просп. Победы, 151, Череповец</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>59.1223751</v>
+      </c>
+      <c r="E257" t="n">
+        <v>37.9900998</v>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>ул. Горького, 111, Вологда</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>59.2191827</v>
+      </c>
+      <c r="E258" t="n">
+        <v>39.91773920000001</v>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Лесная ул., 23, д. Городище</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>55.77985959999999</v>
+      </c>
+      <c r="E259" t="n">
+        <v>37.5895896</v>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>ул. Ленина, 71, село Кубенское</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>59.43458450000001</v>
+      </c>
+      <c r="E260" t="n">
+        <v>39.6685539</v>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>ул. Челюскинцев, 47, Вологда, этаж 1</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>59.21221600000001</v>
+      </c>
+      <c r="E261" t="n">
+        <v>39.8768949</v>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>ул. Лермонтова, 27, Вологда</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>59.21899299999999</v>
+      </c>
+      <c r="E262" t="n">
+        <v>39.895505</v>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Советский просп., 70, Вологда</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>59.21104740000001</v>
+      </c>
+      <c r="E263" t="n">
+        <v>39.9050075</v>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>ул. Текстильщиков, 18, Вологда</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>59.189451</v>
+      </c>
+      <c r="E264" t="n">
+        <v>39.921228</v>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Северная ул., 7, Вологда</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>59.21623</v>
+      </c>
+      <c r="E265" t="n">
+        <v>39.92915199999999</v>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Молодёжная ул., 5В, Вологда</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>59.2021962</v>
+      </c>
+      <c r="E266" t="n">
+        <v>39.8883559</v>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Ленинградская ул., 95А, Вологда</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>59.20174650000001</v>
+      </c>
+      <c r="E267" t="n">
+        <v>39.8313444</v>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Ленинградская ул., 115, Вологда</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>59.19840050000001</v>
+      </c>
+      <c r="E268" t="n">
+        <v>39.8235136</v>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Архангельская ул., 3, Вологда, отдельный вход, этаж 1</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>59.18475100000001</v>
+      </c>
+      <c r="E269" t="n">
+        <v>39.90168730000001</v>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Городецкая ул., 10, Череповец</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>59.08910999999999</v>
+      </c>
+      <c r="E270" t="n">
+        <v>37.9122879</v>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Рабочая ул., 41Г, посёлок Тоншалово</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>59.19687</v>
+      </c>
+      <c r="E271" t="n">
+        <v>37.9439501</v>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>ул. Кирова, 21, Вологда</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>59.21660899999999</v>
+      </c>
+      <c r="E272" t="n">
+        <v>39.8777199</v>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>ул. Горького, 51, Вологда</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>59.227554</v>
+      </c>
+      <c r="E273" t="n">
+        <v>39.900565</v>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Окружное ш., 26, Вологда</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>59.1943504</v>
+      </c>
+      <c r="E274" t="n">
+        <v>39.82675880000001</v>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Ленинградская ул., 146, Вологда</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>59.204407</v>
+      </c>
+      <c r="E275" t="n">
+        <v>39.83341</v>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>ул. Ломоносова, 8, Череповец</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>59.1208885</v>
+      </c>
+      <c r="E276" t="n">
+        <v>37.8901548</v>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>ул. Гагарина, 11, Вологда</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>59.216591</v>
+      </c>
+      <c r="E277" t="n">
+        <v>39.849004</v>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>ул. Герцена, 27, Вологда</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>59.215163</v>
+      </c>
+      <c r="E278" t="n">
+        <v>39.890103</v>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>ул. Гагарина, 82А, Вологда</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>59.2048469</v>
+      </c>
+      <c r="E279" t="n">
+        <v>39.822094</v>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Ленинградская ул., 60, Череповец</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
+        <v>59.096695</v>
+      </c>
+      <c r="E280" t="n">
+        <v>37.933757</v>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>ул. Герцена, 68, Вологда</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>59.20794399999999</v>
+      </c>
+      <c r="E281" t="n">
+        <v>39.8997681</v>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>просп. Победы, 58Б, Череповец</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
+        <v>59.129399</v>
+      </c>
+      <c r="E282" t="n">
+        <v>37.9264546</v>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>ул. Кирова, 57, Вологда</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D283" t="n">
+        <v>59.21902490000001</v>
+      </c>
+      <c r="E283" t="n">
+        <v>39.8683839</v>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>ул. Ветошкина, 54, Вологда</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
+        <v>59.2057963</v>
+      </c>
+      <c r="E284" t="n">
+        <v>39.89982</v>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Псковская ул., 11, корп. 2, Вологда</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D285" t="n">
+        <v>59.19804300000001</v>
+      </c>
+      <c r="E285" t="n">
+        <v>39.8387299</v>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>ул. Мира, 10, село Борисово-Судское</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D286" t="n">
+        <v>59.8990664</v>
+      </c>
+      <c r="E286" t="n">
+        <v>35.9990305</v>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>1, Тепличный микрорайон, Вологда</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D287" t="n">
+        <v>59.204814</v>
+      </c>
+      <c r="E287" t="n">
+        <v>39.8644389</v>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Северная ул., 16А, Вологда</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D288" t="n">
+        <v>59.21404090000001</v>
+      </c>
+      <c r="E288" t="n">
+        <v>39.930684</v>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>ул. М. Горького, 24, Череповец</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D289" t="n">
+        <v>59.12874799999999</v>
+      </c>
+      <c r="E289" t="n">
+        <v>37.921826</v>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>50, посёлок Непотягово</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D290" t="n">
+        <v>59.14585030000001</v>
+      </c>
+      <c r="E290" t="n">
+        <v>39.8107857</v>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>просп. Победы, 189, Череповец</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D291" t="n">
+        <v>59.12179399999999</v>
+      </c>
+      <c r="E291" t="n">
+        <v>38.0047459</v>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>ул. Мира, 40, Вологда</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D292" t="n">
+        <v>59.216562</v>
+      </c>
+      <c r="E292" t="n">
+        <v>39.8816809</v>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Рабочая ул., 2, посёлок Васильевское</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D293" t="n">
+        <v>59.0875</v>
+      </c>
+      <c r="E293" t="n">
+        <v>40.150833</v>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>ул. Первого Мая, 7, Вельск</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D294" t="n">
+        <v>61.0727005</v>
+      </c>
+      <c r="E294" t="n">
+        <v>42.1118128</v>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>ул. Чехова, 3В, Вельск</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D295" t="n">
+        <v>61.0547162</v>
+      </c>
+      <c r="E295" t="n">
+        <v>42.0985779</v>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>ул. Дзержинского, 94, Вельск</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D296" t="n">
+        <v>61.0660158</v>
+      </c>
+      <c r="E296" t="n">
+        <v>42.1068756</v>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Привокзальная ул., 47, Вельск</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D297" t="n">
+        <v>61.063708</v>
+      </c>
+      <c r="E297" t="n">
+        <v>42.0842079</v>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Октябрьский просп., 37, рабочий посёлок Коноша</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>Пункт выдачи</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>Ozon</t>
+        </is>
+      </c>
+      <c r="D298" t="n">
+        <v>60.97141319999999</v>
+      </c>
+      <c r="E298" t="n">
+        <v>40.264841</v>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
